--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_3_resultat_fts_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_3_resultat_fts_bay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30F1BC-958B-4844-AC70-4697D56C4D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620378FA-6A0E-4B02-A526-4D15FDBF5E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
   <si>
     <t>type</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
   </si>
   <si>
     <t>yes</t>
@@ -449,13 +443,58 @@
     <t>${d_swallowed_lf_med} = 'Yes'</t>
   </si>
   <si>
-    <t>ng_lf_tas_202403_3_resultat_fts_bay</t>
-  </si>
-  <si>
-    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa</t>
-  </si>
-  <si>
-    <t>ng_fts_202403</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>select_one team</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202403_3_resultat_fts_bay_v2</t>
+  </si>
+  <si>
+    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa V2.</t>
+  </si>
+  <si>
+    <t>ng_fts_202403_v2</t>
+  </si>
+  <si>
+    <t>Select your EU</t>
+  </si>
+  <si>
+    <t>d_eu</t>
   </si>
 </sst>
 </file>
@@ -593,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,6 +734,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1047,7 +1089,7 @@
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="47.25">
       <c r="A2" s="29" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>14</v>
@@ -1059,16 +1101,12 @@
         <v>16</v>
       </c>
       <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="30"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -1076,38 +1114,32 @@
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1">
       <c r="A3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1">
       <c r="A4" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="29"/>
@@ -1116,23 +1148,23 @@
       <c r="H4" s="30"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="16" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="29"/>
@@ -1141,84 +1173,88 @@
       <c r="H5" s="30"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1">
-      <c r="A6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="16" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" s="16" customFormat="1">
+      <c r="A8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" s="16" customFormat="1">
-      <c r="A7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:14" s="16" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" s="16" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -1227,7 +1263,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1236,166 +1272,164 @@
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>113</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="I10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" ht="31.5">
-      <c r="A11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="11" t="s">
+    <row r="11" spans="1:14" s="16" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" s="16" customFormat="1" ht="31.5">
+      <c r="A12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" s="16" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="H12" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:14" s="16" customFormat="1" ht="31.5">
+    <row r="13" spans="1:14" s="16" customFormat="1">
       <c r="A13" s="29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="31"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:14" s="16" customFormat="1">
+    <row r="14" spans="1:14" s="16" customFormat="1" ht="31.5">
       <c r="A14" s="29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="33"/>
       <c r="H14" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:14" s="16" customFormat="1" ht="31.5">
+    <row r="15" spans="1:14" s="16" customFormat="1">
       <c r="A15" s="29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="33"/>
       <c r="H15" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:14" s="16" customFormat="1">
+    <row r="16" spans="1:14" s="16" customFormat="1" ht="31.5">
       <c r="A16" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="31"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -1403,301 +1437,324 @@
       <c r="H16" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13" s="16" customFormat="1" ht="63">
+    <row r="17" spans="1:13" s="16" customFormat="1">
       <c r="A17" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="33"/>
       <c r="H17" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13" s="16" customFormat="1" ht="31.5">
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="63">
       <c r="A18" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="33"/>
       <c r="H18" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I18" s="29"/>
-      <c r="J18" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" ht="31.5">
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="31.5">
       <c r="A19" s="29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="36"/>
+        <v>48</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="34"/>
+        <v>119</v>
+      </c>
+      <c r="I19" s="29"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" ht="31.5">
       <c r="A20" s="29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="36"/>
       <c r="H20" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" ht="31.5">
+    <row r="21" spans="1:13">
       <c r="A21" s="29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="36"/>
       <c r="H21" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="31.5">
       <c r="A22" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="36"/>
       <c r="H22" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="34"/>
+        <v>121</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    <row r="23" spans="1:13">
+      <c r="A23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:13" ht="56.25" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H24" s="39"/>
+      <c r="I24" s="28" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="30" t="s">
         <v>129</v>
       </c>
+      <c r="H26" s="39"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="27" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="A30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="A31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1708,11 +1765,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1724,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1733,239 +1790,304 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1">
+      <c r="A5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1">
+      <c r="A7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
@@ -3139,13 +3261,73 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="4"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="4"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="4"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="4"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="4"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="4"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="4"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="4"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="4"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="4"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="4"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="4"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C17">
-    <sortCondition ref="B10:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:C29">
+    <sortCondition ref="B22:B29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3156,43 +3338,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="50.875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="52.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="27" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_3_resultat_fts_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_3_resultat_fts_bay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620378FA-6A0E-4B02-A526-4D15FDBF5E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3D71A5-A975-4E84-9DE1-39CA5243037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -482,19 +482,37 @@
     <t>select_one team</t>
   </si>
   <si>
-    <t>ng_lf_tas_202403_3_resultat_fts_bay_v2</t>
-  </si>
-  <si>
-    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa V2.</t>
-  </si>
-  <si>
-    <t>ng_fts_202403_v2</t>
-  </si>
-  <si>
     <t>Select your EU</t>
   </si>
   <si>
     <t>d_eu</t>
+  </si>
+  <si>
+    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa V2.1</t>
+  </si>
+  <si>
+    <t>ng_fts_202403_v2_1</t>
+  </si>
+  <si>
+    <t>d_parent_name</t>
+  </si>
+  <si>
+    <t>Parent/Guardian's name &amp; Contact</t>
+  </si>
+  <si>
+    <t>d_have_bed_net</t>
+  </si>
+  <si>
+    <t>Do you have mosquito net? (Y/N)</t>
+  </si>
+  <si>
+    <t>Do you sleep inside mosquito net? (Y/N)</t>
+  </si>
+  <si>
+    <t>d_sleep_bed_net</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202403_3_fts_bay_v2_1</t>
   </si>
 </sst>
 </file>
@@ -1019,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1117,10 +1135,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" s="39"/>
       <c r="G3" s="39"/>
@@ -1232,7 +1250,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>110</v>
@@ -1661,13 +1679,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>127</v>
@@ -1679,13 +1697,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>127</v>
@@ -1697,16 +1715,16 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="27" t="s">
@@ -1715,45 +1733,99 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>62</v>
+        <v>130</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="A31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B35" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="16" t="s">
+    <row r="36" spans="1:13">
+      <c r="A36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3337,14 +3409,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="52.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="27" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
   </cols>
@@ -3365,10 +3437,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>100</v>

--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_3_resultat_fts_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_3_resultat_fts_bay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3D71A5-A975-4E84-9DE1-39CA5243037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700D96F-0D6C-4DF3-8C30-EB59C91C7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -488,12 +488,6 @@
     <t>d_eu</t>
   </si>
   <si>
-    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa V2.1</t>
-  </si>
-  <si>
-    <t>ng_fts_202403_v2_1</t>
-  </si>
-  <si>
     <t>d_parent_name</t>
   </si>
   <si>
@@ -512,7 +506,19 @@
     <t>d_sleep_bed_net</t>
   </si>
   <si>
-    <t>ng_lf_tas_202403_3_fts_bay_v2_1</t>
+    <t>ng_lf_tas_202403_3_fts_bay_v2_2</t>
+  </si>
+  <si>
+    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa V2.2.</t>
+  </si>
+  <si>
+    <t>ng_fts_202403_v2_2</t>
+  </si>
+  <si>
+    <t>d_village_community</t>
+  </si>
+  <si>
+    <t>Village/Community</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1250,7 +1256,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>110</v>
@@ -1682,10 +1688,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>127</v>
@@ -1715,13 +1721,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>127</v>
@@ -1733,16 +1739,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="27" t="s">
@@ -1751,16 +1757,16 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="16" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="27" t="s">
@@ -1772,10 +1778,10 @@
         <v>108</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>127</v>
@@ -1787,45 +1793,63 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B34" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C34" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>64</v>
-      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B37" s="27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3409,13 +3433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.375" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.375" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="27" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
@@ -3437,10 +3461,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>100</v>
